--- a/results/minimal_seats-Czech-republic.xlsx
+++ b/results/minimal_seats-Czech-republic.xlsx
@@ -19,64 +19,64 @@
     <t>Key</t>
   </si>
   <si>
-    <t>HSD</t>
-  </si>
-  <si>
-    <t>KDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB </t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>ODA</t>
-  </si>
-  <si>
-    <t>ODS</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>ČSS</t>
-  </si>
-  <si>
-    <t>KSČ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ </t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VV </t>
-  </si>
-  <si>
-    <t>ANO</t>
-  </si>
-  <si>
-    <t>Usv</t>
-  </si>
-  <si>
-    <t>Pir</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>PaS</t>
-  </si>
-  <si>
-    <t>S -</t>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)</t>
+  </si>
+  <si>
+    <t>US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)</t>
+  </si>
+  <si>
+    <t>Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>PaS - Pirates and Mayors (Piráti a Starostové, PaS)</t>
+  </si>
+  <si>
+    <t>S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)</t>
   </si>
   <si>
     <t>1992</t>
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>5.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>5</v>
